--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAC82C-EDC7-40A3-B78B-5785CF8C1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BBD25-9ACE-41FA-A39B-617B64F66913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>レジェンド</t>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -123,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,15 +150,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -447,7 +463,7 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,8 +482,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -487,8 +506,11 @@
       <c r="F2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -508,8 +530,11 @@
       <c r="F3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -529,8 +554,11 @@
       <c r="F4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,8 +578,11 @@
       <c r="F5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -571,8 +602,11 @@
       <c r="F6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -592,8 +626,11 @@
       <c r="F7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -613,8 +650,11 @@
       <c r="F8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -634,8 +674,11 @@
       <c r="F9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -655,8 +698,11 @@
       <c r="F10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -676,8 +722,11 @@
       <c r="F11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -697,8 +746,11 @@
       <c r="F12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -718,8 +770,11 @@
       <c r="F13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -739,8 +794,11 @@
       <c r="F14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -760,8 +818,11 @@
       <c r="F15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -781,8 +842,11 @@
       <c r="F16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -802,8 +866,11 @@
       <c r="F17" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -823,8 +890,11 @@
       <c r="F18" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -844,8 +914,11 @@
       <c r="F19" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -865,8 +938,11 @@
       <c r="F20" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -886,8 +962,11 @@
       <c r="F21" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -907,8 +986,11 @@
       <c r="F22" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -928,8 +1010,11 @@
       <c r="F23" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -949,8 +1034,11 @@
       <c r="F24" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -970,6 +1058,156 @@
       <c r="F25" s="1">
         <v>-1</v>
       </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f>VLOOKUP(E26,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f>VLOOKUP(E27,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f>VLOOKUP(E28,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <f>VLOOKUP(E29,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f>VLOOKUP(E30,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <f>VLOOKUP(E31,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -982,7 +1220,7 @@
           <x14:formula1>
             <xm:f>reference!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E25</xm:sqref>
+          <xm:sqref>E2:E31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BBD25-9ACE-41FA-A39B-617B64F66913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8EB19-B49F-43DB-BEF0-A0D572A9AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>star</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -463,7 +467,7 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,8 +489,11 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -509,8 +516,11 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -533,8 +543,11 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -557,8 +570,11 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -581,8 +597,11 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -605,8 +624,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -629,8 +651,11 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -653,8 +678,11 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -677,8 +705,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,8 +732,11 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -725,8 +759,11 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -749,8 +786,11 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -773,8 +813,11 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -797,8 +840,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -821,8 +867,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -845,8 +894,11 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -869,8 +921,11 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -893,8 +948,11 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -917,8 +975,11 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -941,8 +1002,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -965,8 +1029,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -989,8 +1056,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1013,8 +1083,11 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1037,8 +1110,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1061,8 +1137,11 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1085,8 +1164,11 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1109,8 +1191,11 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1133,8 +1218,11 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1157,8 +1245,11 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1181,8 +1272,11 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1205,8 +1299,11 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="C32" s="4"/>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8EB19-B49F-43DB-BEF0-A0D572A9AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6893200-EF27-427B-9979-DD2A2FC25B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,13 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スター</t>
+  </si>
+  <si>
+    <t>スター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -517,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -544,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -571,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -598,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -625,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -679,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -706,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -733,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -760,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -787,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -814,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -841,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -868,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -895,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -922,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -949,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -976,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1153,10 +1160,10 @@
       </c>
       <c r="D26" s="1">
         <f>VLOOKUP(E26,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3">
         <v>-1</v>
@@ -1180,10 +1187,10 @@
       </c>
       <c r="D27" s="1">
         <f>VLOOKUP(E27,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3">
         <v>-1</v>
@@ -1207,10 +1214,10 @@
       </c>
       <c r="D28" s="1">
         <f>VLOOKUP(E28,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F28" s="3">
         <v>-1</v>
@@ -1234,10 +1241,10 @@
       </c>
       <c r="D29" s="1">
         <f>VLOOKUP(E29,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3">
         <v>-1</v>
@@ -1261,10 +1268,10 @@
       </c>
       <c r="D30" s="1">
         <f>VLOOKUP(E30,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3">
         <v>-1</v>
@@ -1288,10 +1295,10 @@
       </c>
       <c r="D31" s="1">
         <f>VLOOKUP(E31,reference!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3">
         <v>-1</v>
@@ -1315,7 +1322,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D0F1ABC-6E0A-4793-BF45-29CCD13159ED}">
           <x14:formula1>
-            <xm:f>reference!$A$1:$A$4</xm:f>
+            <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E31</xm:sqref>
         </x14:dataValidation>
@@ -1327,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91368C9-1224-48EA-A531-7AC2EC35C551}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1371,8 +1378,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6893200-EF27-427B-9979-DD2A2FC25B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF9EB2-79A8-4C35-A468-DB4ECB885563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF9EB2-79A8-4C35-A468-DB4ECB885563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C353A5-5106-45DA-8128-12891F6ABD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="1410" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -545,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C353A5-5106-45DA-8128-12891F6ABD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67519BA0-66C0-49A8-A1F6-48E75A1478D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="1410" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>スター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nameID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -462,856 +466,949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f>VLOOKUP(E2,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>VLOOKUP(F2,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <f>VLOOKUP(E3,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(F3,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>VLOOKUP(E4,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>VLOOKUP(F4,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <f>VLOOKUP(E5,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>VLOOKUP(F5,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>VLOOKUP(E6,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <f>VLOOKUP(F6,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <v>305</v>
+      </c>
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
       <c r="D7" s="1">
-        <f>VLOOKUP(E7,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>VLOOKUP(F7,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f>VLOOKUP(E8,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>VLOOKUP(F8,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="1">
+        <v>-1</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f>VLOOKUP(E9,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>VLOOKUP(F9,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="1">
+        <v>-1</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <f>VLOOKUP(E10,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>VLOOKUP(F10,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="1">
+        <v>-1</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <f>VLOOKUP(E11,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>VLOOKUP(F11,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
+      <c r="G11" s="1">
+        <v>-1</v>
       </c>
       <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <f>VLOOKUP(E12,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f>VLOOKUP(F12,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="1">
+        <v>-1</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
+        <v>311</v>
+      </c>
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
       <c r="D13" s="1">
-        <f>VLOOKUP(E13,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f>VLOOKUP(F13,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
+      <c r="G13" s="1">
+        <v>-1</v>
       </c>
       <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f>VLOOKUP(E14,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <f>VLOOKUP(F14,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="1">
+        <v>-1</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <f>VLOOKUP(E15,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <f>VLOOKUP(F15,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="1">
+        <v>-1</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
-        <f>VLOOKUP(E16,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <f>VLOOKUP(F16,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
+      <c r="G16" s="1">
+        <v>-1</v>
       </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <f>VLOOKUP(E17,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <f>VLOOKUP(F17,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
+      <c r="G17" s="1">
+        <v>-1</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <f>VLOOKUP(E18,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <f>VLOOKUP(F18,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="1">
+        <v>-1</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
+        <v>317</v>
+      </c>
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
       <c r="D19" s="1">
-        <f>VLOOKUP(E19,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <f>VLOOKUP(F19,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
+      <c r="G19" s="1">
+        <v>-1</v>
       </c>
       <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f>VLOOKUP(E20,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <f>VLOOKUP(F20,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="1">
+        <v>-1</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f>VLOOKUP(E21,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>VLOOKUP(F21,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="1">
+        <v>-1</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
-        <f>VLOOKUP(E22,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <f>VLOOKUP(F22,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="1">
+        <v>-1</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <f>VLOOKUP(E23,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <f>VLOOKUP(F23,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
+      <c r="G23" s="1">
+        <v>-1</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <f>VLOOKUP(E24,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <f>VLOOKUP(F24,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="1">
+        <v>-1</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="1">
+        <v>323</v>
+      </c>
+      <c r="C25" s="1">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
       <c r="D25" s="1">
-        <f>VLOOKUP(E25,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <f>VLOOKUP(F25,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
+      <c r="G25" s="1">
+        <v>-1</v>
       </c>
       <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
+      <c r="B26" s="1">
+        <v>324</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <f>VLOOKUP(E26,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f>VLOOKUP(F26,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1</v>
-      </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <v>2</v>
+      <c r="B27" s="1">
+        <v>325</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <f>VLOOKUP(E27,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f>VLOOKUP(F27,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1</v>
-      </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>3</v>
+      <c r="B28" s="1">
+        <v>326</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <f>VLOOKUP(E28,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>VLOOKUP(F28,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="3">
-        <v>-1</v>
-      </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <v>4</v>
+      <c r="B29" s="1">
+        <v>327</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <f>VLOOKUP(E29,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f>VLOOKUP(F29,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3">
-        <v>-1</v>
-      </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
-        <v>5</v>
+      <c r="B30" s="1">
+        <v>328</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <f>VLOOKUP(E30,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f>VLOOKUP(F30,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="3">
-        <v>-1</v>
-      </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
+        <v>329</v>
+      </c>
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <f>VLOOKUP(E31,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f>VLOOKUP(F31,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3">
-        <v>-1</v>
-      </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="C32" s="4"/>
+    <row r="32" spans="1:9">
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1324,7 +1421,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E31</xm:sqref>
+          <xm:sqref>F2:F31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67519BA0-66C0-49A8-A1F6-48E75A1478D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13E77-A335-49DA-BE1A-DFAEED6F4529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="-13455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <f>VLOOKUP(F2,reference!A:B,2,FALSE)</f>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(F3,reference!A:B,2,FALSE)</f>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f>VLOOKUP(F4,reference!A:B,2,FALSE)</f>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <f>VLOOKUP(F5,reference!A:B,2,FALSE)</f>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <f>VLOOKUP(F6,reference!A:B,2,FALSE)</f>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <f>VLOOKUP(F7,reference!A:B,2,FALSE)</f>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <f>VLOOKUP(F8,reference!A:B,2,FALSE)</f>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <f>VLOOKUP(F9,reference!A:B,2,FALSE)</f>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <f>VLOOKUP(F10,reference!A:B,2,FALSE)</f>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <f>VLOOKUP(F11,reference!A:B,2,FALSE)</f>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <f>VLOOKUP(F12,reference!A:B,2,FALSE)</f>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <f>VLOOKUP(F13,reference!A:B,2,FALSE)</f>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <f>VLOOKUP(F14,reference!A:B,2,FALSE)</f>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <f>VLOOKUP(F15,reference!A:B,2,FALSE)</f>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <f>VLOOKUP(F16,reference!A:B,2,FALSE)</f>
@@ -968,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <f>VLOOKUP(F17,reference!A:B,2,FALSE)</f>
@@ -998,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
         <f>VLOOKUP(F18,reference!A:B,2,FALSE)</f>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
         <f>VLOOKUP(F19,reference!A:B,2,FALSE)</f>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <f>VLOOKUP(F20,reference!A:B,2,FALSE)</f>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f>VLOOKUP(F21,reference!A:B,2,FALSE)</f>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <f>VLOOKUP(F22,reference!A:B,2,FALSE)</f>
@@ -1148,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <f>VLOOKUP(F23,reference!A:B,2,FALSE)</f>
@@ -1178,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <f>VLOOKUP(F24,reference!A:B,2,FALSE)</f>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <f>VLOOKUP(F25,reference!A:B,2,FALSE)</f>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <f>VLOOKUP(F26,reference!A:B,2,FALSE)</f>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <f>VLOOKUP(F27,reference!A:B,2,FALSE)</f>
@@ -1298,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <f>VLOOKUP(F28,reference!A:B,2,FALSE)</f>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <f>VLOOKUP(F29,reference!A:B,2,FALSE)</f>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <f>VLOOKUP(F30,reference!A:B,2,FALSE)</f>
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <f>VLOOKUP(F31,reference!A:B,2,FALSE)</f>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13E77-A335-49DA-BE1A-DFAEED6F4529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DCE95-04FF-4E21-B061-7170C7A86A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-13455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="-13110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <f>VLOOKUP(F8,reference!A:B,2,FALSE)</f>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="D16:E16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DCE95-04FF-4E21-B061-7170C7A86A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC5EA83-AAD1-4C8C-AE74-D75A582D5962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="-13110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="-12420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="1">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="1">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="1">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="1">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="1">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="1">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="1">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="1">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="1">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC5EA83-AAD1-4C8C-AE74-D75A582D5962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D70B1-651E-4615-ABE6-E4A87224E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="-12420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D70B1-651E-4615-ABE6-E4A87224E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A889D-503B-495C-B8A3-BA169E4856AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <f>VLOOKUP(F8,reference!A:B,2,FALSE)</f>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A889D-503B-495C-B8A3-BA169E4856AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FE9DA-0EC1-4017-A24C-7767C8A249A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FE9DA-0EC1-4017-A24C-7767C8A249A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75429AA-D3DA-413E-AA84-05A8D1168AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -468,9 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -618,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -648,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -678,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75429AA-D3DA-413E-AA84-05A8D1168AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760824BD-9071-436D-8D62-547DB75AFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>nameID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imageID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,17 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,28 +490,31 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -513,29 +522,32 @@
         <v>300</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f>VLOOKUP(F2,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <f>VLOOKUP(G2,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18</v>
       </c>
       <c r="I2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -543,29 +555,32 @@
         <v>301</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <f>VLOOKUP(F3,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <f>VLOOKUP(G3,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
       </c>
       <c r="I3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -573,29 +588,32 @@
         <v>302</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f>VLOOKUP(F4,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>VLOOKUP(G4,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,29 +621,32 @@
         <v>303</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f>VLOOKUP(F5,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <f>VLOOKUP(G5,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -633,29 +654,32 @@
         <v>304</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <f>VLOOKUP(F6,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <f>VLOOKUP(G6,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -663,29 +687,32 @@
         <v>305</v>
       </c>
       <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
       <c r="E7" s="1">
-        <f>VLOOKUP(F7,reference!A:B,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>VLOOKUP(G7,reference!A:B,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -693,29 +720,32 @@
         <v>306</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <f>VLOOKUP(F8,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <f>VLOOKUP(G8,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -723,29 +753,32 @@
         <v>307</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <f>VLOOKUP(F9,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <f>VLOOKUP(G9,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>17</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -753,29 +786,32 @@
         <v>308</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <f>VLOOKUP(F10,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <f>VLOOKUP(G10,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="1">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -783,29 +819,32 @@
         <v>309</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <f>VLOOKUP(F11,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f>VLOOKUP(G11,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
+      <c r="H11" s="1">
+        <v>2</v>
       </c>
       <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -813,29 +852,32 @@
         <v>310</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <f>VLOOKUP(F12,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <f>VLOOKUP(G12,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>14</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -843,29 +885,32 @@
         <v>311</v>
       </c>
       <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
       <c r="E13" s="1">
-        <f>VLOOKUP(F13,reference!A:B,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f>VLOOKUP(G13,reference!A:B,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>26</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
       <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -873,29 +918,32 @@
         <v>312</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <f>VLOOKUP(F14,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <f>VLOOKUP(G14,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="1">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -903,29 +951,32 @@
         <v>313</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <f>VLOOKUP(F15,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <f>VLOOKUP(G15,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>16</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -933,29 +984,32 @@
         <v>314</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <f>VLOOKUP(F16,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <f>VLOOKUP(G16,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>19</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
       <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -963,29 +1017,32 @@
         <v>315</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
-        <f>VLOOKUP(F17,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>VLOOKUP(G17,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>20</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -993,29 +1050,32 @@
         <v>316</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1">
-        <f>VLOOKUP(F18,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <f>VLOOKUP(G18,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>15</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1023,29 +1083,32 @@
         <v>317</v>
       </c>
       <c r="C19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
       <c r="E19" s="1">
-        <f>VLOOKUP(F19,reference!A:B,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <f>VLOOKUP(G19,reference!A:B,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
       <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1053,29 +1116,32 @@
         <v>318</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <f>VLOOKUP(F20,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <f>VLOOKUP(G20,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1083,29 +1149,32 @@
         <v>319</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <f>VLOOKUP(F21,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <f>VLOOKUP(G21,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>21</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1113,29 +1182,32 @@
         <v>320</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <f>VLOOKUP(F22,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f>VLOOKUP(G22,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>22</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1143,29 +1215,32 @@
         <v>321</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <f>VLOOKUP(F23,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <f>VLOOKUP(G23,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>27</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1173,29 +1248,32 @@
         <v>322</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <f>VLOOKUP(F24,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <f>VLOOKUP(G24,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>28</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1203,210 +1281,231 @@
         <v>323</v>
       </c>
       <c r="C25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
       <c r="E25" s="1">
-        <f>VLOOKUP(F25,reference!A:B,2,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <f>VLOOKUP(G25,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>25</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
       <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>324</v>
       </c>
-      <c r="C26" s="3">
-        <v>1</v>
+      <c r="C26" s="1">
+        <v>-1</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
-        <f>VLOOKUP(F26,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f>VLOOKUP(G26,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1</v>
-      </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>325</v>
       </c>
-      <c r="C27" s="3">
-        <v>2</v>
+      <c r="C27" s="1">
+        <v>-1</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <f>VLOOKUP(F27,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f>VLOOKUP(G27,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1</v>
-      </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>326</v>
       </c>
-      <c r="C28" s="3">
-        <v>3</v>
+      <c r="C28" s="1">
+        <v>-1</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <f>VLOOKUP(F28,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f>VLOOKUP(G28,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="3">
-        <v>-1</v>
-      </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>327</v>
       </c>
-      <c r="C29" s="3">
-        <v>4</v>
+      <c r="C29" s="1">
+        <v>-1</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <f>VLOOKUP(F29,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <f>VLOOKUP(G29,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1</v>
-      </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>328</v>
       </c>
-      <c r="C30" s="3">
-        <v>5</v>
+      <c r="C30" s="1">
+        <v>-1</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <f>VLOOKUP(F30,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <f>VLOOKUP(G30,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="3">
-        <v>-1</v>
-      </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>329</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <f>VLOOKUP(F31,reference!A:B,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <f>VLOOKUP(G31,reference!A:B,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="3">
-        <v>-1</v>
-      </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:10">
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1419,7 +1518,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F31</xm:sqref>
+          <xm:sqref>G2:G31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760824BD-9071-436D-8D62-547DB75AFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E39864-1915-4AB1-BDF5-8331732AE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E39864-1915-4AB1-BDF5-8331732AE8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BA9F0-9BD1-466D-AC3D-D43ABF3E972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,27 +169,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -470,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -519,6 +507,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <f>A2+300</f>
         <v>300</v>
       </c>
       <c r="C2" s="1">
@@ -538,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -552,6 +541,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <f t="shared" ref="B3:B31" si="0">A3+300</f>
         <v>301</v>
       </c>
       <c r="C3" s="1">
@@ -571,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -585,6 +575,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" si="0"/>
         <v>302</v>
       </c>
       <c r="C4" s="1">
@@ -604,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -618,6 +609,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="C5" s="1">
@@ -637,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -651,6 +643,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
       <c r="C6" s="1">
@@ -670,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -684,6 +677,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="C7" s="1">
@@ -703,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -717,6 +711,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>306</v>
       </c>
       <c r="C8" s="1">
@@ -750,6 +745,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="C9" s="1">
@@ -783,6 +779,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>308</v>
       </c>
       <c r="C10" s="1">
@@ -816,6 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="C11" s="1">
@@ -849,6 +847,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="C12" s="1">
@@ -882,6 +881,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>311</v>
       </c>
       <c r="C13" s="1">
@@ -915,6 +915,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>312</v>
       </c>
       <c r="C14" s="1">
@@ -948,6 +949,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>313</v>
       </c>
       <c r="C15" s="1">
@@ -981,6 +983,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="C16" s="1">
@@ -1014,6 +1017,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="C17" s="1">
@@ -1047,6 +1051,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>316</v>
       </c>
       <c r="C18" s="1">
@@ -1080,6 +1085,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>317</v>
       </c>
       <c r="C19" s="1">
@@ -1113,6 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="C20" s="1">
@@ -1146,6 +1153,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
       <c r="C21" s="1">
@@ -1179,6 +1187,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="C22" s="1">
@@ -1212,6 +1221,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>321</v>
       </c>
       <c r="C23" s="1">
@@ -1245,6 +1255,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="0"/>
         <v>322</v>
       </c>
       <c r="C24" s="1">
@@ -1278,6 +1289,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="C25" s="1">
@@ -1311,6 +1323,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="C26" s="1">
@@ -1344,6 +1357,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="C27" s="1">
@@ -1377,6 +1391,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="C28" s="1">
@@ -1410,6 +1425,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
+        <f t="shared" si="0"/>
         <v>327</v>
       </c>
       <c r="C29" s="1">
@@ -1443,6 +1459,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
       <c r="C30" s="1">
@@ -1476,6 +1493,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="C31" s="1">
@@ -1505,7 +1523,72 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="E32" s="4"/>
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <f>A32+300</f>
+        <v>330</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <f>VLOOKUP(G32,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3">
+        <v>36</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <f>A33+300</f>
+        <v>331</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <f>VLOOKUP(G33,reference!A:B,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="3">
+        <v>36</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1518,7 +1601,7 @@
           <x14:formula1>
             <xm:f>reference!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G31</xm:sqref>
+          <xm:sqref>G2:G33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Resources/MasterData/CardData.xlsx
+++ b/Assets/Resources/MasterData/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Unitydata\Droad\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018BA9F0-9BD1-466D-AC3D-D43ABF3E972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80649052-41C4-4F1C-B6A1-89007A7A3840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -527,10 +527,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>5</v>
@@ -561,10 +561,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>5</v>
@@ -595,10 +595,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>5</v>
@@ -629,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
@@ -663,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>5</v>
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
